--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thach\OneDrive\Documents\M1 MIASHS\Marathon du web\Maraton-du-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E49452F8-C86C-4906-9B4E-E1B711DF2A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291F2504-F0B6-42FE-8617-54CCA8C4913D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302800D-1F94-4C22-90AE-1D96CFA11F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -72,154 +56,298 @@
     <t xml:space="preserve">Quel est le coût global aidé (de gestion des déchets) €HT/an/hab ? </t>
   </si>
   <si>
+    <t>Facultatif : Pourriez vous nous faire parvenir les points de géolocalisation des PAV si vous les avez cartographié ? Merci!</t>
+  </si>
+  <si>
+    <t>SEMOCTOM</t>
+  </si>
+  <si>
+    <t>https://www.semoctom.com/web/fr/5-carte-interactive.php?&amp;keyword=&amp;type=137</t>
+  </si>
+  <si>
+    <t>CA du Pays Voironnais</t>
+  </si>
+  <si>
+    <t>TEOM + RS</t>
+  </si>
+  <si>
+    <t>oui on a ça. pour quel usage ?</t>
+  </si>
+  <si>
+    <t>Smictom des Pays de Vilaine</t>
+  </si>
+  <si>
+    <t>TEOM</t>
+  </si>
+  <si>
+    <t>CC Bassin de Pompey</t>
+  </si>
+  <si>
+    <t>voir site internet ou appli montri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nantes Métropole </t>
+  </si>
+  <si>
+    <t>https://www.cartoquartiers.fr/, rubrique "Tri, déchets &amp; réemploi", item "Point de collecte de déchets alimentaires"</t>
+  </si>
+  <si>
+    <t>SMICTOM d'Alsace Centrale</t>
+  </si>
+  <si>
+    <t>https://www.smictom-alsacecentrale.fr/la-collecte/infos-sur-la-collecte-des-dechets-porte-porte-et-points-dapport-volontaire</t>
+  </si>
+  <si>
+    <t>CDC PUISAYE FORTERRE</t>
+  </si>
+  <si>
+    <t>REOM</t>
+  </si>
+  <si>
+    <t>Sirtom de la région de Brive</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appli guide du tri de Citeo pour OM, Tri, verre, papier + https://www.sirtom-region-brive.net/collecte-biodechets/ pour les biodéchets + </t>
+  </si>
+  <si>
+    <t>Auray Quiberon Terre Atlantique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas encore, mais à l'avenir pourquoi pas </t>
+  </si>
+  <si>
+    <t>Métropole de Lyon</t>
+  </si>
+  <si>
+    <t>https://data.grandlyon.com/jeux-de-donnees/bornes-a-compost-metropole-lyon/donnees</t>
+  </si>
+  <si>
+    <t>Grand Chambéry</t>
+  </si>
+  <si>
+    <t>Oui, je les envoie dans un mail</t>
+  </si>
+  <si>
+    <t>Grand Paris Seine Ouest</t>
+  </si>
+  <si>
+    <t>Grand Annecy</t>
+  </si>
+  <si>
+    <t>SMTD65</t>
+  </si>
+  <si>
+    <t>nous n'avons pas ces données (gestion directe par nos syndicats de collecte.</t>
+  </si>
+  <si>
+    <t>Alpes d'Azur</t>
+  </si>
+  <si>
+    <t>Syndicat du Bois de l'Aumône (SBA)</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Une carte reprenant les PAV peut vous être transmise par mail</t>
+  </si>
+  <si>
+    <t>SYNDICAT CENTRE HERAULT</t>
+  </si>
+  <si>
+    <t>Voir avec CCVH qui a installé ces points</t>
+  </si>
+  <si>
+    <t>SMICVAL</t>
+  </si>
+  <si>
+    <t>1 à Libourne, et 1 à St Denis de Pile</t>
+  </si>
+  <si>
+    <t>CC Celavu Prunelli</t>
+  </si>
+  <si>
+    <t>CC vallée de l Hérault</t>
+  </si>
+  <si>
+    <t>CC de la Région de Guebwiller</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>RIOM</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Région</t>
   </si>
   <si>
+    <t>Densité moyenne</t>
+  </si>
+  <si>
+    <t>Typologies d'habitation</t>
+  </si>
+  <si>
+    <t>TEOM + REOM</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Occitanie </t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>peuplé</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
     <t>Département</t>
   </si>
   <si>
-    <t>Densité moyenne</t>
-  </si>
-  <si>
-    <t>Typologies d'habitation</t>
+    <t>Haute-Savoie</t>
+  </si>
+  <si>
+    <t>Hautes-Pyrénées</t>
+  </si>
+  <si>
+    <t>Alpes-Maritimes</t>
+  </si>
+  <si>
+    <t>Puy-de-Dôme</t>
+  </si>
+  <si>
+    <t>Hérault</t>
+  </si>
+  <si>
+    <t>Haut-Rhin</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>Gironde</t>
+  </si>
+  <si>
+    <t>171 habitants au km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auvergne-Rhône-Alpes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 257 habitats au km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bretagne </t>
+  </si>
+  <si>
+    <t>76 habitats au km2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grand Est </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 262 habitatsau km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pays de la Loire </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1303 habitats au km2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129 habitats au km2 </t>
+  </si>
+  <si>
+    <t>peu dense</t>
   </si>
   <si>
     <t>Coordonnées</t>
   </si>
   <si>
-    <t>Facultatif : Pourriez vous nous faire parvenir les points de géolocalisation des PAV si vous les avez cartographié ? Merci!</t>
-  </si>
-  <si>
-    <t>SEMOCTOM</t>
-  </si>
-  <si>
-    <t>TEOM + REOM</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>Gironde</t>
-  </si>
-  <si>
-    <t>171 habitants au km2</t>
-  </si>
-  <si>
-    <t>peu dense</t>
-  </si>
-  <si>
     <t>44° 46′ 13″ nord, 0° 18′ 38″ ouest</t>
   </si>
   <si>
-    <t>https://www.semoctom.com/web/fr/5-carte-interactive.php?&amp;keyword=&amp;type=137</t>
-  </si>
-  <si>
-    <t>CA du Pays Voironnais</t>
-  </si>
-  <si>
-    <t>TEOM + RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auvergne-Rhône-Alpes </t>
-  </si>
-  <si>
     <t>Isère</t>
   </si>
   <si>
-    <t xml:space="preserve"> 257 habitats au km2 </t>
-  </si>
-  <si>
     <t>45° 21′ 51″ nord, 5° 35′ 26″ est</t>
   </si>
   <si>
-    <t>oui on a ça. pour quel usage ?</t>
-  </si>
-  <si>
-    <t>Smictom des Pays de Vilaine</t>
-  </si>
-  <si>
-    <t>TEOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bretagne </t>
-  </si>
-  <si>
     <t>Ille-et-Vilaine</t>
   </si>
   <si>
-    <t>76 habitats au km2</t>
-  </si>
-  <si>
     <t>47° 52′ 41″ nord, 1° 47′ 14″ ouest</t>
   </si>
   <si>
-    <t>CC Bassin de Pompey</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grand Est </t>
-  </si>
-  <si>
     <t>Meurthe-et-Moselle</t>
   </si>
   <si>
-    <t xml:space="preserve"> 262 habitatsau km2 </t>
-  </si>
-  <si>
     <t>densité intermédiaire</t>
   </si>
   <si>
     <t>48° 46′ 08″ nord, 6° 07′ 42″ est</t>
   </si>
   <si>
-    <t>voir site internet ou appli montri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nantes Métropole </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pays de la Loire </t>
-  </si>
-  <si>
     <t>Loire-Atlantique</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1303 habitats au km2 </t>
-  </si>
-  <si>
     <t>densement peuplé</t>
   </si>
   <si>
     <t>47° 13′ 05″ nord, 1° 33′ 10″ ouest</t>
   </si>
   <si>
-    <t>https://www.cartoquartiers.fr/, rubrique "Tri, déchets &amp; réemploi", item "Point de collecte de déchets alimentaires"</t>
-  </si>
-  <si>
-    <t>SMICTOM d'Alsace Centrale</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>Bas-Rhin, Haut-Rhin</t>
   </si>
   <si>
-    <t xml:space="preserve"> 129 habitats au km2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">densité intermédiaire </t>
   </si>
   <si>
     <t>48° 19′ 29″ nord, 7° 25′ 41″ est</t>
   </si>
   <si>
-    <t>https://www.smictom-alsacecentrale.fr/la-collecte/infos-sur-la-collecte-des-dechets-porte-porte-et-points-dapport-volontaire</t>
-  </si>
-  <si>
-    <t>CC Celavu Prunelli</t>
-  </si>
-  <si>
-    <t>NaN</t>
+    <t>45° 54′ 58″ nord, 6° 07′ 59″ est</t>
+  </si>
+  <si>
+    <t>peu denses</t>
+  </si>
+  <si>
+    <t>43° 06′ 08″ nord, 0° 19′ 03″ est</t>
+  </si>
+  <si>
+    <t>très peu denses</t>
+  </si>
+  <si>
+    <t>44° 07′ 45″ nord, 6° 49′ 58″ est</t>
+  </si>
+  <si>
+    <t>45° 53′ 40″ nord, 3° 06′ 48″ est</t>
+  </si>
+  <si>
+    <t>43° 39′ 11″ nord, 3° 33′ 07″ est</t>
+  </si>
+  <si>
+    <t>47° 54′ 30″ nord, 7° 12′ 39″ est</t>
+  </si>
+  <si>
+    <t>43° 34′ 00″ nord, 3° 27′ 00″ est</t>
+  </si>
+  <si>
+    <t>44° 59′ 32″ nord, 0° 20′ 24″ ouest</t>
   </si>
   <si>
     <t>Corse</t>
@@ -231,30 +359,12 @@
     <t>Peu dense</t>
   </si>
   <si>
-    <t>CDC PUISAYE FORTERRE</t>
-  </si>
-  <si>
-    <t>REOM</t>
-  </si>
-  <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
     <t>Yonne / Nièvre</t>
   </si>
   <si>
-    <t>Sirtom de la région de Brive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appli guide du tri de Citeo pour OM, Tri, verre, papier + https://www.sirtom-region-brive.net/collecte-biodechets/ pour les biodéchets + </t>
-  </si>
-  <si>
-    <t>Auray Quiberon Terre Atlantique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEOM </t>
-  </si>
-  <si>
     <t>Bretagne</t>
   </si>
   <si>
@@ -264,124 +374,19 @@
     <t>Densité intermédiaire</t>
   </si>
   <si>
-    <t xml:space="preserve">pas encore, mais à l'avenir pourquoi pas </t>
-  </si>
-  <si>
-    <t>Métropole de Lyon</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
     <t>Département du Rhône</t>
   </si>
   <si>
     <t>Densément peuplé</t>
   </si>
   <si>
-    <t>https://data.grandlyon.com/jeux-de-donnees/bornes-a-compost-metropole-lyon/donnees</t>
-  </si>
-  <si>
-    <t>Grand Chambéry</t>
-  </si>
-  <si>
-    <t>4500 pour les PAV biodec mode collecte et près de 30 000 à un point de compostage partagé</t>
-  </si>
-  <si>
     <t>Savoie</t>
   </si>
   <si>
-    <t>Oui, je les envoie dans un mail</t>
-  </si>
-  <si>
-    <t>Grand Paris Seine Ouest</t>
-  </si>
-  <si>
     <t>Ile-de-France</t>
   </si>
   <si>
     <t>Hauts de Seine</t>
-  </si>
-  <si>
-    <t>Grand Annecy</t>
-  </si>
-  <si>
-    <t>Haute-Savoie</t>
-  </si>
-  <si>
-    <t>Moyen +</t>
-  </si>
-  <si>
-    <t>SMTD65</t>
-  </si>
-  <si>
-    <t>Occitanie </t>
-  </si>
-  <si>
-    <t>Hautes-Pyrénées</t>
-  </si>
-  <si>
-    <t>Peu</t>
-  </si>
-  <si>
-    <t>nous n'avons pas ces données (gestion directe par nos syndicats de collecte.</t>
-  </si>
-  <si>
-    <t>Alpes d'Azur</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>Alpes-Maritimes</t>
-  </si>
-  <si>
-    <t>peuplé</t>
-  </si>
-  <si>
-    <t>Syndicat du Bois de l'Aumône (SBA)</t>
-  </si>
-  <si>
-    <t>Puy-de-Dôme</t>
-  </si>
-  <si>
-    <t>Moyen -</t>
-  </si>
-  <si>
-    <t>CC vallée de l Hérault</t>
-  </si>
-  <si>
-    <t>Hérault</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>CC de la Région de Guebwiller</t>
-  </si>
-  <si>
-    <t>RIOM</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>Haut-Rhin</t>
-  </si>
-  <si>
-    <t>Une carte reprenant les PAV peut vous être transmise par mail</t>
-  </si>
-  <si>
-    <t>SYNDICAT CENTRE HERAULT</t>
-  </si>
-  <si>
-    <t>Voir avec CCVH qui a installé ces points</t>
-  </si>
-  <si>
-    <t>SMICVAL</t>
-  </si>
-  <si>
-    <t>1 à Libourne, et 1 à St Denis de Pile</t>
   </si>
 </sst>
 </file>
@@ -391,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -419,26 +424,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -452,14 +444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -467,49 +453,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -730,84 +700,84 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="51.5703125" customWidth="1"/>
-    <col min="6" max="24" width="18.85546875" customWidth="1"/>
+    <col min="6" max="24" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.6">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>45001.677176620375</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="12.95" thickBot="1">
-      <c r="A2" s="9">
-        <v>45001.677176620375</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>114153</v>
@@ -833,37 +803,37 @@
       <c r="J2" s="3">
         <v>37</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
+      <c r="K2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="L2" s="3">
         <v>102.79</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>24</v>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="25.5" thickBot="1">
-      <c r="A3" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>94501</v>
@@ -890,36 +860,36 @@
         <v>36.51</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3">
         <v>103.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="12.6">
-      <c r="A4" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>85273</v>
@@ -946,33 +916,33 @@
         <v>54</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3">
         <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.6">
-      <c r="A5" s="9">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>40800</v>
@@ -999,36 +969,36 @@
         <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3">
         <v>91</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>44</v>
+        <v>91</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="12.95" thickBot="1">
-      <c r="A6" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>682260</v>
@@ -1055,36 +1025,36 @@
         <v>28</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L6" s="3">
         <v>96</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="25.5" thickBot="1">
-      <c r="A7" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>132000</v>
@@ -1110,46 +1080,46 @@
       <c r="J7" s="3">
         <v>47</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>54</v>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="L7" s="3">
         <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>58</v>
+        <v>97</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="12.75">
-      <c r="A8" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>45005.564700925926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>8828</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1157,41 +1127,41 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
         <v>344</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>54</v>
       </c>
       <c r="J8" s="3">
         <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L8" s="3">
         <v>255</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="O8" s="3">
         <v>23</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75">
-      <c r="A9" s="10">
-        <v>45005.621296296296</v>
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>33941</v>
@@ -1208,41 +1178,41 @@
       <c r="G9" s="3">
         <v>33941</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <v>115</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <v>35</v>
       </c>
       <c r="J9" s="3">
         <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="5">
+        <v>113</v>
+      </c>
+      <c r="O9" s="4">
         <v>19</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.75">
-      <c r="A10" s="10">
+      <c r="P9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>155220</v>
@@ -1259,35 +1229,36 @@
       <c r="G10" s="3">
         <v>20924</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <v>184</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>59</v>
       </c>
       <c r="J10" s="3">
         <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="12.75">
-      <c r="A11" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>90815</v>
@@ -1302,46 +1273,46 @@
         <v>90815</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
         <v>198</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>43</v>
       </c>
       <c r="J11" s="3">
         <v>60</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L11" s="3">
         <v>142</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="O11" s="3">
         <v>170</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="12.75">
-      <c r="A12" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>1400000</v>
@@ -1358,44 +1329,44 @@
       <c r="G12" s="3">
         <v>260000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>224</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <v>44.6</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>23.9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L12" s="3">
         <v>76</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="O12" s="3">
         <v>2654</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="12.75">
-      <c r="A13" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>140000</v>
@@ -1409,47 +1380,47 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="3">
+        <v>34500</v>
+      </c>
+      <c r="H13" s="7">
         <v>235</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <v>43.5</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>28.2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L13" s="3">
         <v>100.84</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="O13" s="3">
         <v>259</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.75">
-      <c r="A14" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>45015.485319687505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3">
         <v>324438</v>
@@ -1466,41 +1437,41 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>228</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>46</v>
       </c>
       <c r="J14" s="3">
         <v>23</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L14" s="3">
         <v>99.56</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="O14" s="3">
         <v>9870</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="12.6">
-      <c r="A15" s="7">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>214000</v>
@@ -1509,7 +1480,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1517,50 +1488,52 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>229</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>35</v>
       </c>
       <c r="J15" s="3">
         <v>43</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="11">
-        <v>190</v>
-      </c>
-      <c r="P15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="10">
+        <v>403</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.6">
-      <c r="A16" s="7">
+      <c r="Q15" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>45015.675072337966</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>224226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1568,53 +1541,55 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>221.32</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>59.4</v>
       </c>
       <c r="J16" s="3">
         <v>42</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>54</v>
+      <c r="K16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="11">
-        <v>51</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="10">
+        <v>65</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="R16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="12.6">
-      <c r="A17" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>45015.679077731482</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>9823</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1622,44 +1597,46 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>295</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>51</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L17" s="3">
         <v>173</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="11">
-        <v>255</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="10">
+        <v>11</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="R17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="12.6">
-      <c r="A18" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>165122</v>
@@ -1667,8 +1644,8 @@
       <c r="D18" s="3">
         <v>528</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>61</v>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="3">
         <v>205</v>
@@ -1686,31 +1663,33 @@
         <v>37.5</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="L18" s="3">
         <v>125.36</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" s="11">
-        <v>83</v>
+      <c r="M18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="10">
+        <v>380</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" ht="12.6">
-      <c r="A19" s="7">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3">
         <v>41014</v>
@@ -1737,34 +1716,36 @@
         <v>40</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L19" s="3">
         <v>97</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="10">
+        <v>84</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O19" s="11">
-        <v>195</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="11"/>
       <c r="R19" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="12.6">
-      <c r="A20" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>38069</v>
@@ -1791,34 +1772,36 @@
         <v>43.5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20" s="8">
-        <v>218</v>
-      </c>
-      <c r="P20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="7">
+        <v>201</v>
+      </c>
+      <c r="P20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="R20" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="12.6">
-      <c r="A21" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>45016.51286357639</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3">
         <v>82148</v>
@@ -1845,34 +1828,36 @@
         <v>43</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L21" s="3">
         <v>81</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O21" s="11">
-        <v>195</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="11"/>
+      <c r="M21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="10">
+        <v>104</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="R21" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="12.6">
-      <c r="A22" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>45016.690710104165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3">
         <v>20902</v>
@@ -1886,7 +1871,7 @@
       <c r="F22" s="3">
         <v>56070</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="3">
@@ -1899,44 +1884,40 @@
         <v>37.200000000000003</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="5">
-        <v>164</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="11"/>
+      <c r="O22" s="4">
+        <v>186</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q2" r:id="rId3" location="/maplink/1" display="https://fr.wikipedia.org/wiki/La_Sauve - /maplink/1" xr:uid="{C6C9A15A-AB0F-4C06-A550-2465327E97F4}"/>
+    <hyperlink ref="R12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="N2" r:id="rId4" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{DE922D36-5B2C-4494-B018-C011115D7144}"/>
     <hyperlink ref="N3" r:id="rId5" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{826151B7-3E68-4856-95CC-1424C9844A79}"/>
-    <hyperlink ref="Q3" r:id="rId6" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Voiron - /maplink/1" xr:uid="{3E5C98D5-A111-4B50-A99A-9F284FC2FE33}"/>
-    <hyperlink ref="N4" r:id="rId7" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
-    <hyperlink ref="Q4" r:id="rId8" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Saint-Malo-de-Phily - /maplink/1" xr:uid="{E619C5AA-C1E4-410D-A58B-B411EDB7BF0C}"/>
-    <hyperlink ref="N5" r:id="rId9" tooltip="Meurthe-et-Moselle" display="https://fr.wikipedia.org/wiki/Meurthe-et-Moselle" xr:uid="{0C39027E-470B-4ED8-971A-4EBB36E3FE62}"/>
-    <hyperlink ref="Q5" r:id="rId10" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Pompey - /maplink/1" xr:uid="{889F7680-8E2D-4B98-A5CA-90E41706493B}"/>
-    <hyperlink ref="N6" r:id="rId11" tooltip="Loire-Atlantique" display="https://fr.wikipedia.org/wiki/Loire-Atlantique" xr:uid="{6A12DA2C-1A5F-418F-89F8-EE42F1D22A80}"/>
-    <hyperlink ref="Q6" r:id="rId12" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Nantes - /maplink/1" xr:uid="{4274F30A-A0C1-4390-A899-1B91C917BA25}"/>
-    <hyperlink ref="Q7" r:id="rId13" location="/maplink/1" display="https://fr.wikipedia.org/wiki/Dambach-la-Ville - /maplink/1" xr:uid="{D90FE50B-ECC4-4F17-B263-43DB5D634502}"/>
-    <hyperlink ref="R12" r:id="rId14" xr:uid="{72BC80B9-C068-41E4-B59E-6816A4BD173C}"/>
+    <hyperlink ref="N4" r:id="rId6" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
+    <hyperlink ref="N5" r:id="rId7" tooltip="Meurthe-et-Moselle" display="https://fr.wikipedia.org/wiki/Meurthe-et-Moselle" xr:uid="{0C39027E-470B-4ED8-971A-4EBB36E3FE62}"/>
+    <hyperlink ref="N6" r:id="rId8" tooltip="Loire-Atlantique" display="https://fr.wikipedia.org/wiki/Loire-Atlantique" xr:uid="{6A12DA2C-1A5F-418F-89F8-EE42F1D22A80}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302800D-1F94-4C22-90AE-1D96CFA11F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A9F0D-6A0F-476D-99E0-B76020C99AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
+    <sheet name="DD" sheetId="1" r:id="rId1"/>
+    <sheet name="Converstion Q" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -242,36 +256,6 @@
     <t>Gironde</t>
   </si>
   <si>
-    <t>171 habitants au km2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auvergne-Rhône-Alpes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 257 habitats au km2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bretagne </t>
-  </si>
-  <si>
-    <t>76 habitats au km2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grand Est </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 262 habitatsau km2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pays de la Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1303 habitats au km2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129 habitats au km2 </t>
-  </si>
-  <si>
     <t>peu dense</t>
   </si>
   <si>
@@ -387,6 +371,75 @@
   </si>
   <si>
     <t>Hauts de Seine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auvergne-Rhône-Alpes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bretagne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays de la Loire </t>
+  </si>
+  <si>
+    <t>Superficie Km²</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Lib</t>
+  </si>
+  <si>
+    <t>Nb H</t>
+  </si>
+  <si>
+    <t>Biodéchet T/an</t>
+  </si>
+  <si>
+    <t>Nb H Collecte B</t>
+  </si>
+  <si>
+    <t>Nb H Collecte PAP</t>
+  </si>
+  <si>
+    <t>Nb H Collecte PAV</t>
+  </si>
+  <si>
+    <t>OMR T/an/H</t>
+  </si>
+  <si>
+    <t>Emba T/an/H</t>
+  </si>
+  <si>
+    <t>Verre T/an/H</t>
+  </si>
+  <si>
+    <t>Tarif</t>
+  </si>
+  <si>
+    <t>Cout</t>
+  </si>
+  <si>
+    <t>Typolo</t>
+  </si>
+  <si>
+    <t>Biodéchet T/an/H</t>
+  </si>
+  <si>
+    <t>Densité</t>
+  </si>
+  <si>
+    <t>Habitant concerné PAP</t>
+  </si>
+  <si>
+    <t>Habitant concerné PAV</t>
+  </si>
+  <si>
+    <t>Habitant concerné</t>
   </si>
 </sst>
 </file>
@@ -396,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -420,6 +473,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,11 +521,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,10 +546,16 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,61 +771,75 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" customWidth="1"/>
-    <col min="6" max="24" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.7109375" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
+      <c r="C1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>55</v>
@@ -760,19 +848,34 @@
         <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>45001.677176620375</v>
       </c>
@@ -809,26 +912,46 @@
       <c r="L2" s="3">
         <v>102.79</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="3">
+        <v>171</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="15">
+        <f>C2/O2</f>
+        <v>667.56140350877195</v>
+      </c>
+      <c r="S2" s="14">
+        <f>D2/C2*1000</f>
+        <v>4.1961227475405813</v>
+      </c>
+      <c r="T2" s="17">
+        <f>E2/$C2</f>
+        <v>0.15664940912634798</v>
+      </c>
+      <c r="U2" s="17">
+        <f t="shared" ref="U2:V2" si="0">F2/$C2</f>
+        <v>0.15664940912634798</v>
+      </c>
+      <c r="V2" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45001.729072118054</v>
       </c>
@@ -865,26 +988,46 @@
       <c r="L3" s="3">
         <v>103.8</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>75</v>
+      <c r="M3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="3">
+        <v>257</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="15">
+        <f t="shared" ref="R3:R22" si="1">C3/O3</f>
+        <v>367.7081712062257</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" ref="S3:S22" si="2">D3/C3*1000</f>
+        <v>18.909852805790415</v>
+      </c>
+      <c r="T3" s="17">
+        <f t="shared" ref="T3:T22" si="3">E3/$C3</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="17">
+        <f t="shared" ref="U3:U22" si="4">F3/$C3</f>
+        <v>0.81718711971301894</v>
+      </c>
+      <c r="V3" s="17">
+        <f t="shared" ref="V3:V22" si="5">G3/$C3</f>
+        <v>0.18281288028698109</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>45002.416117141205</v>
       </c>
@@ -921,23 +1064,43 @@
       <c r="L4" s="3">
         <v>81</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="3">
         <v>76</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" si="1"/>
+        <v>1122.0131578947369</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="2"/>
+        <v>29.575598372286656</v>
+      </c>
+      <c r="T4" s="17">
+        <f t="shared" si="3"/>
+        <v>0.99064182097498621</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" si="4"/>
+        <v>0.98829641269804036</v>
+      </c>
+      <c r="V4" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1703587301959589E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>45002.449634259261</v>
       </c>
@@ -974,26 +1137,46 @@
       <c r="L5" s="3">
         <v>91</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>79</v>
+      <c r="M5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="3">
+        <v>262</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="1"/>
+        <v>155.72519083969465</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="2"/>
+        <v>85.784313725490193</v>
+      </c>
+      <c r="T5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" si="4"/>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="V5" s="17">
+        <f t="shared" si="5"/>
+        <v>0.11029411764705882</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>45002.627384050924</v>
       </c>
@@ -1030,26 +1213,46 @@
       <c r="L6" s="3">
         <v>96</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>81</v>
+      <c r="M6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1303</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="1"/>
+        <v>523.60706062931695</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="2"/>
+        <v>0.29314337642540966</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" si="3"/>
+        <v>3.6642922053176208E-2</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <f t="shared" si="5"/>
+        <v>3.6642922053176208E-2</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>45002.650517083333</v>
       </c>
@@ -1086,26 +1289,46 @@
       <c r="L7" s="3">
         <v>86</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>82</v>
+      <c r="M7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="3">
+        <v>129</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="15">
+        <f t="shared" si="1"/>
+        <v>1023.2558139534884</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
+        <v>23.575757575757578</v>
+      </c>
+      <c r="T7" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>45005.564700925926</v>
       </c>
@@ -1142,21 +1365,41 @@
       <c r="L8" s="3">
         <v>255</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>110</v>
+      <c r="M8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>23</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R8" s="15">
+        <f t="shared" si="1"/>
+        <v>383.82608695652175</v>
+      </c>
+      <c r="S8" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>45005.621300856481</v>
       </c>
@@ -1193,21 +1436,41 @@
       <c r="L9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>113</v>
+      <c r="M9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="O9" s="4">
         <v>19</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R9" s="15">
+        <f t="shared" si="1"/>
+        <v>1786.3684210526317</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
+        <v>96.520432515247037</v>
+      </c>
+      <c r="T9" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>45005.631334247686</v>
       </c>
@@ -1244,16 +1507,36 @@
       <c r="L10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="2"/>
+        <v>2.7812137611132588</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" si="3"/>
+        <v>0.17671691792294808</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" si="4"/>
+        <v>4.1914701713696691E-2</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.1348022162092514</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>45007.493851562496</v>
       </c>
@@ -1290,24 +1573,44 @@
       <c r="L11" s="3">
         <v>142</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>115</v>
+      <c r="M11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="O11" s="3">
         <v>170</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="15">
+        <f t="shared" si="1"/>
+        <v>534.20588235294122</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="2"/>
+        <v>16.5170951935253</v>
+      </c>
+      <c r="T11" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="17" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>45008.446508553243</v>
       </c>
@@ -1344,24 +1647,44 @@
       <c r="L12" s="3">
         <v>76</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>117</v>
+      <c r="N12" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="O12" s="3">
         <v>2654</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="15">
+        <f t="shared" si="1"/>
+        <v>527.50565184626976</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.76142857142857145</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" si="3"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
+        <f t="shared" si="5"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>45014.472854074076</v>
       </c>
@@ -1398,24 +1721,44 @@
       <c r="L13" s="3">
         <v>100.84</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>119</v>
+      <c r="N13" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="O13" s="3">
         <v>259</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="15">
+        <f t="shared" si="1"/>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="2"/>
+        <v>0.50857142857142856</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="3"/>
+        <v>3.214285714285714E-2</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
+        <f t="shared" si="5"/>
+        <v>0.24642857142857144</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>45015.485319687505</v>
       </c>
@@ -1452,21 +1795,41 @@
       <c r="L14" s="3">
         <v>99.56</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>121</v>
+      <c r="M14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="O14" s="3">
         <v>9870</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="R14" s="15">
+        <f t="shared" si="1"/>
+        <v>32.87112462006079</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="2"/>
+        <v>1.0448837682392322</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="3"/>
+        <v>4.1185064634845489E-2</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="4"/>
+        <v>4.1185064634845489E-2</v>
+      </c>
+      <c r="V14" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45015.494416099536</v>
       </c>
@@ -1503,23 +1866,43 @@
       <c r="L15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O15" s="10">
         <v>403</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="1"/>
+        <v>531.01736972704714</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="2"/>
+        <v>2.8037383177570092</v>
+      </c>
+      <c r="T15" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45015.675072337966</v>
       </c>
@@ -1556,26 +1939,46 @@
       <c r="L16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O16" s="10">
         <v>65</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="R16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="1"/>
+        <v>3449.6307692307691</v>
+      </c>
+      <c r="S16" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T16" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45015.679077731482</v>
       </c>
@@ -1612,26 +2015,46 @@
       <c r="L17" s="3">
         <v>173</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O17" s="10">
         <v>11</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="R17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="1"/>
+        <v>893</v>
+      </c>
+      <c r="S17" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>45015.703346759256</v>
       </c>
@@ -1668,23 +2091,43 @@
       <c r="L18" s="3">
         <v>125.36</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="O18" s="10">
         <v>380</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="1"/>
+        <v>434.53157894736842</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="2"/>
+        <v>3.1976356875522343</v>
+      </c>
+      <c r="T18" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2415062802049394E-3</v>
+      </c>
+      <c r="V18" s="17">
+        <f t="shared" si="5"/>
+        <v>0.24174852533278424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45016.342198321756</v>
       </c>
@@ -1721,26 +2164,46 @@
       <c r="L19" s="3">
         <v>97</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O19" s="10">
         <v>84</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="R19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="1"/>
+        <v>488.26190476190476</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="2"/>
+        <v>42.180718778953526</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="17">
+        <f t="shared" si="4"/>
+        <v>0.91466328570731947</v>
+      </c>
+      <c r="V19" s="17">
+        <f t="shared" si="5"/>
+        <v>8.5336714292680554E-2</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>45016.42414427083</v>
       </c>
@@ -1777,26 +2240,46 @@
       <c r="L20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="O20" s="7">
         <v>201</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="1"/>
+        <v>189.39800995024876</v>
+      </c>
+      <c r="S20" s="14">
+        <f t="shared" si="2"/>
+        <v>62.305813128792458</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0199637500328351</v>
+      </c>
+      <c r="U20" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0087998108697365</v>
+      </c>
+      <c r="V20" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1163939163098584E-2</v>
+      </c>
+      <c r="AD20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45016.51286357639</v>
       </c>
@@ -1833,26 +2316,46 @@
       <c r="L21" s="3">
         <v>81</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O21" s="10">
         <v>104</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="R21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="1"/>
+        <v>789.88461538461536</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" si="2"/>
+        <v>36.519452695135612</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="3"/>
+        <v>0.84359935725763258</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" si="4"/>
+        <v>0.80099332911330767</v>
+      </c>
+      <c r="V21" s="17">
+        <f t="shared" si="5"/>
+        <v>4.2606028144324876E-2</v>
+      </c>
+      <c r="AD21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45016.690710104165</v>
       </c>
@@ -1860,7 +2363,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3">
-        <v>20902</v>
+        <v>56070</v>
       </c>
       <c r="D22" s="3">
         <v>1570</v>
@@ -1889,30 +2392,50 @@
       <c r="L22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O22" s="4">
         <v>186</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="R22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="1"/>
+        <v>301.45161290322579</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="2"/>
+        <v>28.000713393971822</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="17">
+        <f t="shared" si="5"/>
+        <v>3.5669698591046908E-5</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="R12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AD2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AD7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AD12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="N2" r:id="rId4" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{DE922D36-5B2C-4494-B018-C011115D7144}"/>
     <hyperlink ref="N3" r:id="rId5" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{826151B7-3E68-4856-95CC-1424C9844A79}"/>
     <hyperlink ref="N4" r:id="rId6" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
@@ -1921,4 +2444,172 @@
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E842F-DCBD-4AF8-983C-106F4FFA8D6C}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="172.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A9F0D-6A0F-476D-99E0-B76020C99AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A28599-2A2E-41EF-A332-AAB0ABC8A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,13 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,17 +520,14 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -551,6 +542,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -774,10 +776,10 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -811,34 +813,34 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -876,7 +878,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="15">
         <v>45001.677176620375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -906,7 +908,7 @@
       <c r="J2" s="3">
         <v>37</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="L2" s="3">
@@ -927,23 +929,23 @@
       <c r="Q2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="12">
         <f>C2/O2</f>
         <v>667.56140350877195</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="11">
         <f>D2/C2*1000</f>
         <v>4.1961227475405813</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="14">
         <f>E2/$C2</f>
         <v>0.15664940912634798</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="14">
         <f t="shared" ref="U2:V2" si="0">F2/$C2</f>
         <v>0.15664940912634798</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -952,7 +954,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="15">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1003,23 +1005,23 @@
       <c r="Q3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="12">
         <f t="shared" ref="R3:R22" si="1">C3/O3</f>
         <v>367.7081712062257</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="11">
         <f t="shared" ref="S3:S22" si="2">D3/C3*1000</f>
         <v>18.909852805790415</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="14">
         <f t="shared" ref="T3:T22" si="3">E3/$C3</f>
         <v>1</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="14">
         <f t="shared" ref="U3:U22" si="4">F3/$C3</f>
         <v>0.81718711971301894</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="14">
         <f t="shared" ref="V3:V22" si="5">G3/$C3</f>
         <v>0.18281288028698109</v>
       </c>
@@ -1028,7 +1030,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="15">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1079,29 +1081,29 @@
       <c r="Q4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="12">
         <f t="shared" si="1"/>
         <v>1122.0131578947369</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="11">
         <f t="shared" si="2"/>
         <v>29.575598372286656</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="14">
         <f t="shared" si="3"/>
         <v>0.99064182097498621</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="14">
         <f t="shared" si="4"/>
         <v>0.98829641269804036</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="14">
         <f t="shared" si="5"/>
         <v>1.1703587301959589E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="15">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1149,26 +1151,26 @@
       <c r="P5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="12">
         <f t="shared" si="1"/>
         <v>155.72519083969465</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="11">
         <f t="shared" si="2"/>
         <v>85.784313725490193</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="14">
         <f t="shared" si="3"/>
         <v>0.73529411764705888</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="14">
         <f t="shared" si="4"/>
         <v>0.73529411764705888</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="14">
         <f t="shared" si="5"/>
         <v>0.11029411764705882</v>
       </c>
@@ -1177,7 +1179,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="15">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1225,26 +1227,26 @@
       <c r="P6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="12">
         <f t="shared" si="1"/>
         <v>523.60706062931695</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="11">
         <f t="shared" si="2"/>
         <v>0.29314337642540966</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="14">
         <f t="shared" si="3"/>
         <v>3.6642922053176208E-2</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="14">
         <f t="shared" si="5"/>
         <v>3.6642922053176208E-2</v>
       </c>
@@ -1253,7 +1255,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="15">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1283,7 +1285,7 @@
       <c r="J7" s="3">
         <v>47</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="3">
@@ -1301,26 +1303,26 @@
       <c r="P7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="12">
         <f t="shared" si="1"/>
         <v>1023.2558139534884</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="11">
         <f t="shared" si="2"/>
         <v>23.575757575757578</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="14">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -1328,79 +1330,79 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8" spans="1:30" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
         <v>45005.564700925926</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="18">
         <v>8828</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
         <v>344</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="18">
         <v>54</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="18">
         <v>28</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="18">
         <v>255</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="18">
         <v>23</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="15">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="20">
         <f t="shared" si="1"/>
         <v>383.82608695652175</v>
       </c>
-      <c r="S8" s="14" t="e">
+      <c r="S8" s="21" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T8" s="17" t="e">
+      <c r="T8" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="15">
         <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1421,10 +1423,10 @@
       <c r="G9" s="3">
         <v>33941</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>115</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>35</v>
       </c>
       <c r="J9" s="3">
@@ -1449,29 +1451,29 @@
         <v>101</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="15">
+      <c r="R9" s="12">
         <f t="shared" si="1"/>
         <v>1786.3684210526317</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="11">
         <f t="shared" si="2"/>
         <v>96.520432515247037</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="14">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="15">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1492,10 +1494,10 @@
       <c r="G10" s="3">
         <v>20924</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>184</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>59</v>
       </c>
       <c r="J10" s="3">
@@ -1512,23 +1514,23 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="15" t="e">
+      <c r="R10" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="11">
         <f t="shared" si="2"/>
         <v>2.7812137611132588</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="14">
         <f t="shared" si="3"/>
         <v>0.17671691792294808</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="14">
         <f t="shared" si="4"/>
         <v>4.1914701713696691E-2</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="14">
         <f t="shared" si="5"/>
         <v>0.1348022162092514</v>
       </c>
@@ -1537,7 +1539,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="15">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1558,10 +1560,10 @@
       <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>198</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>43</v>
       </c>
       <c r="J11" s="3">
@@ -1586,23 +1588,23 @@
         <v>106</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="15">
+      <c r="R11" s="12">
         <f t="shared" si="1"/>
         <v>534.20588235294122</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="11">
         <f t="shared" si="2"/>
         <v>16.5170951935253</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V11" s="17" t="e">
+      <c r="V11" s="14" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -1611,7 +1613,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="15">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1632,10 +1634,10 @@
       <c r="G12" s="3">
         <v>260000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>224</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>44.6</v>
       </c>
       <c r="J12" s="5">
@@ -1660,23 +1662,23 @@
         <v>108</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="15">
+      <c r="R12" s="12">
         <f t="shared" si="1"/>
         <v>527.50565184626976</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="11">
         <f t="shared" si="2"/>
         <v>0.76142857142857145</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="14">
         <f t="shared" si="3"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="14">
         <f t="shared" si="5"/>
         <v>0.18571428571428572</v>
       </c>
@@ -1685,7 +1687,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="15">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1706,10 +1708,10 @@
       <c r="G13" s="3">
         <v>34500</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>235</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>43.5</v>
       </c>
       <c r="J13" s="5">
@@ -1734,23 +1736,23 @@
         <v>106</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="15">
+      <c r="R13" s="12">
         <f t="shared" si="1"/>
         <v>540.54054054054052</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="11">
         <f t="shared" si="2"/>
         <v>0.50857142857142856</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="14">
         <f t="shared" si="3"/>
         <v>3.214285714285714E-2</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="14">
         <f t="shared" si="5"/>
         <v>0.24642857142857144</v>
       </c>
@@ -1759,7 +1761,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="15">
         <v>45015.485319687505</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1780,10 +1782,10 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>228</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>46</v>
       </c>
       <c r="J14" s="3">
@@ -1808,29 +1810,29 @@
         <v>108</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="15">
+      <c r="R14" s="12">
         <f t="shared" si="1"/>
         <v>32.87112462006079</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="11">
         <f t="shared" si="2"/>
         <v>1.0448837682392322</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="14">
         <f t="shared" si="3"/>
         <v>4.1185064634845489E-2</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="14">
         <f t="shared" si="4"/>
         <v>4.1185064634845489E-2</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="15">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1851,10 +1853,10 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>229</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>35</v>
       </c>
       <c r="J15" s="3">
@@ -1872,190 +1874,190 @@
       <c r="N15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="7">
         <v>403</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="12">
         <f t="shared" si="1"/>
         <v>531.01736972704714</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="11">
         <f t="shared" si="2"/>
         <v>2.8037383177570092</v>
       </c>
-      <c r="T15" s="17" t="e">
+      <c r="T15" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:30" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>45015.675072337966</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="18">
         <v>224226</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
         <v>221.32</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="18">
         <v>59.4</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="18">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="19">
         <v>65</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="20">
         <f t="shared" si="1"/>
         <v>3449.6307692307691</v>
       </c>
-      <c r="S16" s="14" t="e">
+      <c r="S16" s="21" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T16" s="17" t="e">
+      <c r="T16" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AD16" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:30" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>45015.679077731482</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="18">
         <v>9823</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
         <v>295</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="18">
         <v>51</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="18">
         <v>30</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="18">
         <v>173</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="19">
         <v>11</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="20">
         <f t="shared" si="1"/>
         <v>893</v>
       </c>
-      <c r="S17" s="14" t="e">
+      <c r="S17" s="21" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T17" s="17" t="e">
+      <c r="T17" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="15">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2067,7 +2069,7 @@
       <c r="D18" s="3">
         <v>528</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="3">
@@ -2097,38 +2099,38 @@
       <c r="N18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="7">
         <v>380</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="12">
         <f t="shared" si="1"/>
         <v>434.53157894736842</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="11">
         <f t="shared" si="2"/>
         <v>3.1976356875522343</v>
       </c>
-      <c r="T18" s="17" t="e">
+      <c r="T18" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="14">
         <f t="shared" si="4"/>
         <v>1.2415062802049394E-3</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="14">
         <f t="shared" si="5"/>
         <v>0.24174852533278424</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="15">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2170,32 +2172,32 @@
       <c r="N19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="7">
         <v>84</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="12">
         <f t="shared" si="1"/>
         <v>488.26190476190476</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="11">
         <f t="shared" si="2"/>
         <v>42.180718778953526</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="14">
         <f t="shared" si="4"/>
         <v>0.91466328570731947</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="14">
         <f t="shared" si="5"/>
         <v>8.5336714292680554E-2</v>
       </c>
@@ -2204,7 +2206,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="15">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2237,7 +2239,7 @@
       <c r="K20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -2246,32 +2248,32 @@
       <c r="N20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>201</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="12">
         <f t="shared" si="1"/>
         <v>189.39800995024876</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="11">
         <f t="shared" si="2"/>
         <v>62.305813128792458</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="14">
         <f t="shared" si="3"/>
         <v>1.0199637500328351</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="14">
         <f t="shared" si="4"/>
         <v>1.0087998108697365</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="14">
         <f t="shared" si="5"/>
         <v>1.1163939163098584E-2</v>
       </c>
@@ -2280,7 +2282,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="15">
         <v>45016.51286357639</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2322,32 +2324,32 @@
       <c r="N21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="7">
         <v>104</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="12">
         <f t="shared" si="1"/>
         <v>789.88461538461536</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="11">
         <f t="shared" si="2"/>
         <v>36.519452695135612</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="14">
         <f t="shared" si="3"/>
         <v>0.84359935725763258</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="14">
         <f t="shared" si="4"/>
         <v>0.80099332911330767</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21" s="14">
         <f t="shared" si="5"/>
         <v>4.2606028144324876E-2</v>
       </c>
@@ -2356,7 +2358,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="15">
         <v>45016.690710104165</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2374,7 +2376,7 @@
       <c r="F22" s="3">
         <v>56070</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>2</v>
       </c>
       <c r="H22" s="3">
@@ -2401,29 +2403,29 @@
       <c r="O22" s="4">
         <v>186</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="12">
         <f t="shared" si="1"/>
         <v>301.45161290322579</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="11">
         <f t="shared" si="2"/>
         <v>28.000713393971822</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U22" s="17">
+      <c r="U22" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V22" s="17">
+      <c r="V22" s="14">
         <f t="shared" si="5"/>
         <v>3.5669698591046908E-5</v>
       </c>
@@ -2461,10 +2463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1"/>
@@ -2482,7 +2484,7 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2490,7 +2492,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2498,7 +2500,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2506,7 +2508,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2514,7 +2516,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2522,7 +2524,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2530,7 +2532,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2538,7 +2540,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2546,7 +2548,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2554,7 +2556,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="1" t="s">

--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\S2\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A28599-2A2E-41EF-A332-AAB0ABC8A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FFFFD-F76A-4633-802A-C84E36088CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DD" sheetId="1" r:id="rId1"/>
-    <sheet name="Converstion Q" sheetId="2" r:id="rId2"/>
+    <sheet name="DD Extra" sheetId="3" r:id="rId2"/>
+    <sheet name="Q a poser" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Converstion Q" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="128">
   <si>
     <t>Nom de votre collectivité</t>
   </si>
@@ -262,78 +264,36 @@
     <t>Coordonnées</t>
   </si>
   <si>
-    <t>44° 46′ 13″ nord, 0° 18′ 38″ ouest</t>
-  </si>
-  <si>
     <t>Isère</t>
   </si>
   <si>
-    <t>45° 21′ 51″ nord, 5° 35′ 26″ est</t>
-  </si>
-  <si>
     <t>Ille-et-Vilaine</t>
   </si>
   <si>
-    <t>47° 52′ 41″ nord, 1° 47′ 14″ ouest</t>
-  </si>
-  <si>
     <t>Meurthe-et-Moselle</t>
   </si>
   <si>
     <t>densité intermédiaire</t>
   </si>
   <si>
-    <t>48° 46′ 08″ nord, 6° 07′ 42″ est</t>
-  </si>
-  <si>
     <t>Loire-Atlantique</t>
   </si>
   <si>
     <t>densement peuplé</t>
   </si>
   <si>
-    <t>47° 13′ 05″ nord, 1° 33′ 10″ ouest</t>
-  </si>
-  <si>
     <t>Bas-Rhin, Haut-Rhin</t>
   </si>
   <si>
     <t xml:space="preserve">densité intermédiaire </t>
   </si>
   <si>
-    <t>48° 19′ 29″ nord, 7° 25′ 41″ est</t>
-  </si>
-  <si>
-    <t>45° 54′ 58″ nord, 6° 07′ 59″ est</t>
-  </si>
-  <si>
     <t>peu denses</t>
   </si>
   <si>
-    <t>43° 06′ 08″ nord, 0° 19′ 03″ est</t>
-  </si>
-  <si>
     <t>très peu denses</t>
   </si>
   <si>
-    <t>44° 07′ 45″ nord, 6° 49′ 58″ est</t>
-  </si>
-  <si>
-    <t>45° 53′ 40″ nord, 3° 06′ 48″ est</t>
-  </si>
-  <si>
-    <t>43° 39′ 11″ nord, 3° 33′ 07″ est</t>
-  </si>
-  <si>
-    <t>47° 54′ 30″ nord, 7° 12′ 39″ est</t>
-  </si>
-  <si>
-    <t>43° 34′ 00″ nord, 3° 27′ 00″ est</t>
-  </si>
-  <si>
-    <t>44° 59′ 32″ nord, 0° 20′ 24″ ouest</t>
-  </si>
-  <si>
     <t>Corse</t>
   </si>
   <si>
@@ -440,14 +400,36 @@
   </si>
   <si>
     <t>Habitant concerné</t>
+  </si>
+  <si>
+    <t>Pourquoi si peut de tonnes de biodechet</t>
+  </si>
+  <si>
+    <t>OMR T/an/H %</t>
+  </si>
+  <si>
+    <t>Emba T/an/H %</t>
+  </si>
+  <si>
+    <t>Verre T/an/H %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nouvelle-Acquitaine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dordogne/ Corrèze/ Haute-Vienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peu dense </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -520,7 +502,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -542,7 +524,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -553,6 +535,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -773,40 +757,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="18.7109375" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -814,34 +794,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>55</v>
@@ -850,34 +830,19 @@
         <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>45001.677176620375</v>
       </c>
@@ -926,34 +891,15 @@
       <c r="P2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="12">
+      <c r="Q2" s="12">
         <f>C2/O2</f>
         <v>667.56140350877195</v>
       </c>
-      <c r="S2" s="11">
-        <f>D2/C2*1000</f>
-        <v>4.1961227475405813</v>
-      </c>
-      <c r="T2" s="14">
-        <f>E2/$C2</f>
-        <v>0.15664940912634798</v>
-      </c>
-      <c r="U2" s="14">
-        <f t="shared" ref="U2:V2" si="0">F2/$C2</f>
-        <v>0.15664940912634798</v>
-      </c>
-      <c r="V2" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>45001.729072118054</v>
       </c>
@@ -991,10 +937,10 @@
         <v>103.8</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="3">
         <v>257</v>
@@ -1002,34 +948,15 @@
       <c r="P3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="12">
-        <f t="shared" ref="R3:R22" si="1">C3/O3</f>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q22" si="0">C3/O3</f>
         <v>367.7081712062257</v>
       </c>
-      <c r="S3" s="11">
-        <f t="shared" ref="S3:S22" si="2">D3/C3*1000</f>
-        <v>18.909852805790415</v>
-      </c>
-      <c r="T3" s="14">
-        <f t="shared" ref="T3:T22" si="3">E3/$C3</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="14">
-        <f t="shared" ref="U3:U22" si="4">F3/$C3</f>
-        <v>0.81718711971301894</v>
-      </c>
-      <c r="V3" s="14">
-        <f t="shared" ref="V3:V22" si="5">G3/$C3</f>
-        <v>0.18281288028698109</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>45002.416117141205</v>
       </c>
@@ -1067,10 +994,10 @@
         <v>81</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O4" s="3">
         <v>76</v>
@@ -1078,31 +1005,12 @@
       <c r="P4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="12">
+        <f t="shared" si="0"/>
         <v>1122.0131578947369</v>
       </c>
-      <c r="S4" s="11">
-        <f t="shared" si="2"/>
-        <v>29.575598372286656</v>
-      </c>
-      <c r="T4" s="14">
-        <f t="shared" si="3"/>
-        <v>0.99064182097498621</v>
-      </c>
-      <c r="U4" s="14">
-        <f t="shared" si="4"/>
-        <v>0.98829641269804036</v>
-      </c>
-      <c r="V4" s="14">
-        <f t="shared" si="5"/>
-        <v>1.1703587301959589E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>45002.449634259261</v>
       </c>
@@ -1140,45 +1048,26 @@
         <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O5" s="3">
         <v>262</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="0"/>
         <v>155.72519083969465</v>
       </c>
-      <c r="S5" s="11">
-        <f t="shared" si="2"/>
-        <v>85.784313725490193</v>
-      </c>
-      <c r="T5" s="14">
-        <f t="shared" si="3"/>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="U5" s="14">
-        <f t="shared" si="4"/>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="V5" s="14">
-        <f t="shared" si="5"/>
-        <v>0.11029411764705882</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>45002.627384050924</v>
       </c>
@@ -1216,45 +1105,26 @@
         <v>96</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O6" s="3">
         <v>1303</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="0"/>
         <v>523.60706062931695</v>
       </c>
-      <c r="S6" s="11">
-        <f t="shared" si="2"/>
-        <v>0.29314337642540966</v>
-      </c>
-      <c r="T6" s="14">
-        <f t="shared" si="3"/>
-        <v>3.6642922053176208E-2</v>
-      </c>
-      <c r="U6" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
-        <f t="shared" si="5"/>
-        <v>3.6642922053176208E-2</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>45002.650517083333</v>
       </c>
@@ -1292,45 +1162,26 @@
         <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O7" s="3">
         <v>129</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="0"/>
         <v>1023.2558139534884</v>
       </c>
-      <c r="S7" s="11">
-        <f t="shared" si="2"/>
-        <v>23.575757575757578</v>
-      </c>
-      <c r="T7" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>45005.564700925926</v>
       </c>
@@ -1368,40 +1219,23 @@
         <v>255</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O8" s="18">
         <v>23</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="20">
-        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="0"/>
         <v>383.82608695652175</v>
       </c>
-      <c r="S8" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T8" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>45005.621300856481</v>
       </c>
@@ -1439,40 +1273,23 @@
         <v>52</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O9" s="4">
         <v>19</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="12">
-        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="0"/>
         <v>1786.3684210526317</v>
       </c>
-      <c r="S9" s="11">
-        <f t="shared" si="2"/>
-        <v>96.520432515247037</v>
-      </c>
-      <c r="T9" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>45005.631334247686</v>
       </c>
@@ -1509,36 +1326,27 @@
       <c r="L10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" si="2"/>
-        <v>2.7812137611132588</v>
-      </c>
-      <c r="T10" s="14">
-        <f t="shared" si="3"/>
-        <v>0.17671691792294808</v>
-      </c>
-      <c r="U10" s="14">
-        <f t="shared" si="4"/>
-        <v>4.1914701713696691E-2</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="5"/>
-        <v>0.1348022162092514</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+      <c r="M10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="3">
+        <v>330</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="0"/>
+        <v>470.36363636363637</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>45007.493851562496</v>
       </c>
@@ -1557,8 +1365,8 @@
       <c r="F11" s="3">
         <v>90815</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
+      <c r="G11" s="3">
+        <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>198</v>
@@ -1576,43 +1384,26 @@
         <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O11" s="3">
         <v>170</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="12">
-        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" si="0"/>
         <v>534.20588235294122</v>
       </c>
-      <c r="S11" s="11">
-        <f t="shared" si="2"/>
-        <v>16.5170951935253</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>45008.446508553243</v>
       </c>
@@ -1653,40 +1444,23 @@
         <v>59</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O12" s="3">
         <v>2654</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="12">
-        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="0"/>
         <v>527.50565184626976</v>
       </c>
-      <c r="S12" s="11">
-        <f t="shared" si="2"/>
-        <v>0.76142857142857145</v>
-      </c>
-      <c r="T12" s="14">
-        <f t="shared" si="3"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="U12" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
-        <f t="shared" si="5"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="AD12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>45014.472854074076</v>
       </c>
@@ -1700,7 +1474,7 @@
         <v>71.2</v>
       </c>
       <c r="E13" s="3">
-        <v>4500</v>
+        <v>34500</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1727,40 +1501,23 @@
         <v>59</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3">
         <v>259</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="12">
-        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
         <v>540.54054054054052</v>
       </c>
-      <c r="S13" s="11">
-        <f t="shared" si="2"/>
-        <v>0.50857142857142856</v>
-      </c>
-      <c r="T13" s="14">
-        <f t="shared" si="3"/>
-        <v>3.214285714285714E-2</v>
-      </c>
-      <c r="U13" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="14">
-        <f t="shared" si="5"/>
-        <v>0.24642857142857144</v>
-      </c>
-      <c r="AD13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>45015.485319687505</v>
       </c>
@@ -1798,40 +1555,23 @@
         <v>99.56</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O14" s="3">
         <v>9870</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="12">
-        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="0"/>
         <v>32.87112462006079</v>
       </c>
-      <c r="S14" s="11">
-        <f t="shared" si="2"/>
-        <v>1.0448837682392322</v>
-      </c>
-      <c r="T14" s="14">
-        <f t="shared" si="3"/>
-        <v>4.1185064634845489E-2</v>
-      </c>
-      <c r="U14" s="14">
-        <f t="shared" si="4"/>
-        <v>4.1185064634845489E-2</v>
-      </c>
-      <c r="V14" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>45015.494416099536</v>
       </c>
@@ -1878,33 +1618,14 @@
         <v>403</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="12">
-        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="0"/>
         <v>531.01736972704714</v>
       </c>
-      <c r="S15" s="11">
-        <f t="shared" si="2"/>
-        <v>2.8037383177570092</v>
-      </c>
-      <c r="T15" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>45015.675072337966</v>
       </c>
@@ -1951,36 +1672,17 @@
         <v>65</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="20">
-        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="0"/>
         <v>3449.6307692307691</v>
       </c>
-      <c r="S16" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T16" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U16" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="17" t="s">
+      <c r="R16" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>45015.679077731482</v>
       </c>
@@ -2027,36 +1729,17 @@
         <v>11</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" s="20">
-        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="0"/>
         <v>893</v>
       </c>
-      <c r="S17" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T17" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U17" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="23" t="s">
+      <c r="R17" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45015.703346759256</v>
       </c>
@@ -2103,33 +1786,14 @@
         <v>380</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R18" s="12">
-        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
         <v>434.53157894736842</v>
       </c>
-      <c r="S18" s="11">
-        <f t="shared" si="2"/>
-        <v>3.1976356875522343</v>
-      </c>
-      <c r="T18" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U18" s="14">
-        <f t="shared" si="4"/>
-        <v>1.2415062802049394E-3</v>
-      </c>
-      <c r="V18" s="14">
-        <f t="shared" si="5"/>
-        <v>0.24174852533278424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>45016.342198321756</v>
       </c>
@@ -2176,36 +1840,17 @@
         <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="12">
-        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
         <v>488.26190476190476</v>
       </c>
-      <c r="S19" s="11">
-        <f t="shared" si="2"/>
-        <v>42.180718778953526</v>
-      </c>
-      <c r="T19" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="14">
-        <f t="shared" si="4"/>
-        <v>0.91466328570731947</v>
-      </c>
-      <c r="V19" s="14">
-        <f t="shared" si="5"/>
-        <v>8.5336714292680554E-2</v>
-      </c>
-      <c r="AD19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45016.42414427083</v>
       </c>
@@ -2252,36 +1897,17 @@
         <v>201</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="12">
-        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
         <v>189.39800995024876</v>
       </c>
-      <c r="S20" s="11">
-        <f t="shared" si="2"/>
-        <v>62.305813128792458</v>
-      </c>
-      <c r="T20" s="14">
-        <f t="shared" si="3"/>
-        <v>1.0199637500328351</v>
-      </c>
-      <c r="U20" s="14">
-        <f t="shared" si="4"/>
-        <v>1.0087998108697365</v>
-      </c>
-      <c r="V20" s="14">
-        <f t="shared" si="5"/>
-        <v>1.1163939163098584E-2</v>
-      </c>
-      <c r="AD20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>45016.51286357639</v>
       </c>
@@ -2328,36 +1954,17 @@
         <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="R21" s="12">
-        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="0"/>
         <v>789.88461538461536</v>
       </c>
-      <c r="S21" s="11">
-        <f t="shared" si="2"/>
-        <v>36.519452695135612</v>
-      </c>
-      <c r="T21" s="14">
-        <f t="shared" si="3"/>
-        <v>0.84359935725763258</v>
-      </c>
-      <c r="U21" s="14">
-        <f t="shared" si="4"/>
-        <v>0.80099332911330767</v>
-      </c>
-      <c r="V21" s="14">
-        <f t="shared" si="5"/>
-        <v>4.2606028144324876E-2</v>
-      </c>
-      <c r="AD21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>45016.690710104165</v>
       </c>
@@ -2404,40 +2011,21 @@
         <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R22" s="12">
-        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="0"/>
         <v>301.45161290322579</v>
       </c>
-      <c r="S22" s="11">
-        <f t="shared" si="2"/>
-        <v>28.000713393971822</v>
-      </c>
-      <c r="T22" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V22" s="14">
-        <f t="shared" si="5"/>
-        <v>3.5669698591046908E-5</v>
-      </c>
-      <c r="AD22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AD2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AD7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AD12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="R12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="N2" r:id="rId4" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{DE922D36-5B2C-4494-B018-C011115D7144}"/>
     <hyperlink ref="N3" r:id="rId5" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{826151B7-3E68-4856-95CC-1424C9844A79}"/>
     <hyperlink ref="N4" r:id="rId6" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{85258FE5-1D27-46DB-A22E-8B7D91DFF5E4}"/>
@@ -2449,6 +2037,1914 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EA96B-7D24-4AB2-BD67-5C208D2B42E4}">
+  <dimension ref="A1:AC37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>45001.677176620375</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>114153</v>
+      </c>
+      <c r="D2" s="3">
+        <v>479</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17882</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17882</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3">
+        <v>56</v>
+      </c>
+      <c r="J2" s="3">
+        <v>37</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="3">
+        <v>102.79</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="3">
+        <v>171</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>C2/O2</f>
+        <v>667.56140350877195</v>
+      </c>
+      <c r="R2" s="11">
+        <f>D2/E2</f>
+        <v>2.6786712895649257E-2</v>
+      </c>
+      <c r="S2" s="14">
+        <f>E2/$C2</f>
+        <v>0.15664940912634798</v>
+      </c>
+      <c r="T2" s="14">
+        <f>F2/$E2</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="14">
+        <f>G2/$E2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <f>H2/SUM($H2:$J2)</f>
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="W2" s="14">
+        <f t="shared" ref="W2:X2" si="0">I2/SUM($H2:$J2)</f>
+        <v>0.49557522123893805</v>
+      </c>
+      <c r="X2" s="14">
+        <f t="shared" si="0"/>
+        <v>0.32743362831858408</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>45001.729072118054</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>94501</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1787</v>
+      </c>
+      <c r="E3" s="3">
+        <v>94501</v>
+      </c>
+      <c r="F3" s="3">
+        <v>77225</v>
+      </c>
+      <c r="G3" s="3">
+        <v>17276</v>
+      </c>
+      <c r="H3" s="3">
+        <v>161.43</v>
+      </c>
+      <c r="I3" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>36.51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="3">
+        <v>257</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q19" si="1">C3/O3</f>
+        <v>367.7081712062257</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" ref="R3:R19" si="2">D3/E3</f>
+        <v>1.8909852805790415E-2</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" ref="S3:S19" si="3">E3/$C3</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <f t="shared" ref="T3:U19" si="4">F3/$E3</f>
+        <v>0.81718711971301894</v>
+      </c>
+      <c r="U3" s="14">
+        <f t="shared" si="4"/>
+        <v>0.18281288028698109</v>
+      </c>
+      <c r="V3" s="14">
+        <f t="shared" ref="V3:V19" si="5">H3/SUM($H3:$J3)</f>
+        <v>0.62999531689041521</v>
+      </c>
+      <c r="W3" s="14">
+        <f t="shared" ref="W3:W19" si="6">I3/SUM($H3:$J3)</f>
+        <v>0.22752107399313143</v>
+      </c>
+      <c r="X3" s="14">
+        <f t="shared" ref="X3:X19" si="7">J3/SUM($H3:$J3)</f>
+        <v>0.1424836091164533</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>45002.416117141205</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>85273</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2522</v>
+      </c>
+      <c r="E4" s="3">
+        <v>84475</v>
+      </c>
+      <c r="F4" s="3">
+        <v>84275</v>
+      </c>
+      <c r="G4" s="3">
+        <v>998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3">
+        <v>54</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3">
+        <v>81</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="3">
+        <v>76</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="1"/>
+        <v>1122.0131578947369</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="2"/>
+        <v>2.985498668245043E-2</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="3"/>
+        <v>0.99064182097498621</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="4"/>
+        <v>0.99763243563184378</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1814146197099733E-2</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" si="5"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="W4" s="14">
+        <f t="shared" si="6"/>
+        <v>0.34883720930232559</v>
+      </c>
+      <c r="X4" s="14">
+        <f t="shared" si="7"/>
+        <v>0.41860465116279072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>45002.449634259261</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40800</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>185</v>
+      </c>
+      <c r="I5" s="3">
+        <v>63</v>
+      </c>
+      <c r="J5" s="3">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3">
+        <v>91</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="3">
+        <v>262</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="1"/>
+        <v>155.72519083969465</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="3"/>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="14">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="V5" s="14">
+        <f t="shared" si="5"/>
+        <v>0.6630824372759857</v>
+      </c>
+      <c r="W5" s="14">
+        <f t="shared" si="6"/>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="X5" s="14">
+        <f t="shared" si="7"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>45002.627384050924</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>682260</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>199</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3">
+        <v>96</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1303</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="1"/>
+        <v>523.60706062931695</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="3"/>
+        <v>3.6642922053176208E-2</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.73161764705882348</v>
+      </c>
+      <c r="W6" s="14">
+        <f t="shared" si="6"/>
+        <v>0.16544117647058823</v>
+      </c>
+      <c r="X6" s="14">
+        <f t="shared" si="7"/>
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>45002.650517083333</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>132000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3112</v>
+      </c>
+      <c r="E7" s="3">
+        <v>132000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>132000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>141</v>
+      </c>
+      <c r="I7" s="3">
+        <v>58</v>
+      </c>
+      <c r="J7" s="3">
+        <v>47</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3">
+        <v>86</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="3">
+        <v>129</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="1"/>
+        <v>1023.2558139534884</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3575757575757576E-2</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="14">
+        <f t="shared" si="5"/>
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="W7" s="14">
+        <f t="shared" si="6"/>
+        <v>0.23577235772357724</v>
+      </c>
+      <c r="X7" s="14">
+        <f t="shared" si="7"/>
+        <v>0.1910569105691057</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>45005.621300856481</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>33941</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3276</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33941</v>
+      </c>
+      <c r="F8" s="3">
+        <v>33941</v>
+      </c>
+      <c r="G8" s="3">
+        <v>33941</v>
+      </c>
+      <c r="H8" s="6">
+        <v>115</v>
+      </c>
+      <c r="I8" s="6">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <v>56</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="4">
+        <v>19</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="1"/>
+        <v>1786.3684210526317</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="2"/>
+        <v>9.6520432515247043E-2</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="14">
+        <f t="shared" si="5"/>
+        <v>0.55825242718446599</v>
+      </c>
+      <c r="W8" s="14">
+        <f t="shared" si="6"/>
+        <v>0.16990291262135923</v>
+      </c>
+      <c r="X8" s="14">
+        <f t="shared" si="7"/>
+        <v>0.27184466019417475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>45005.631334247686</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>155220</v>
+      </c>
+      <c r="D9" s="3">
+        <v>431.7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27430</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6506</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20924</v>
+      </c>
+      <c r="H9" s="6">
+        <v>184</v>
+      </c>
+      <c r="I9" s="6">
+        <v>59</v>
+      </c>
+      <c r="J9" s="3">
+        <v>37</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="3">
+        <v>330</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="1"/>
+        <v>470.36363636363637</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="2"/>
+        <v>1.5738242799854175E-2</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17671691792294808</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="4"/>
+        <v>0.23718556325191395</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" si="4"/>
+        <v>0.76281443674808602</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="5"/>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="W9" s="14">
+        <f t="shared" si="6"/>
+        <v>0.21071428571428572</v>
+      </c>
+      <c r="X9" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13214285714285715</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>45007.493851562496</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>90815</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>90815</v>
+      </c>
+      <c r="F10" s="3">
+        <v>90815</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>198</v>
+      </c>
+      <c r="I10" s="6">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="3">
+        <v>142</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="3">
+        <v>170</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="1"/>
+        <v>534.20588235294122</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6517095193525299E-2</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="5"/>
+        <v>0.65780730897009965</v>
+      </c>
+      <c r="W10" s="14">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X10" s="14">
+        <f t="shared" si="7"/>
+        <v>0.19933554817275748</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>45008.446508553243</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1066</v>
+      </c>
+      <c r="E11" s="3">
+        <v>260000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>260000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>224</v>
+      </c>
+      <c r="I11" s="6">
+        <v>44.6</v>
+      </c>
+      <c r="J11" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3">
+        <v>76</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2654</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" si="1"/>
+        <v>527.50565184626976</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="3"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="5"/>
+        <v>0.76581196581196587</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="6"/>
+        <v>0.15247863247863247</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="7"/>
+        <v>8.1709401709401705E-2</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>45014.472854074076</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>140000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="H12" s="6">
+        <v>235</v>
+      </c>
+      <c r="I12" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100.84</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="3">
+        <v>259</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="1"/>
+        <v>540.54054054054052</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0637681159420291E-3</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="3"/>
+        <v>0.24642857142857144</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.76622106292794268</v>
+      </c>
+      <c r="W12" s="14">
+        <f t="shared" si="6"/>
+        <v>0.14183240952070428</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" si="7"/>
+        <v>9.1946527551353116E-2</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>45015.485319687505</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3">
+        <v>324438</v>
+      </c>
+      <c r="D13" s="3">
+        <v>339</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13362</v>
+      </c>
+      <c r="F13" s="3">
+        <v>13362</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>228</v>
+      </c>
+      <c r="I13" s="6">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="3">
+        <v>99.56</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="3">
+        <v>9870</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="1"/>
+        <v>32.87112462006079</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="2"/>
+        <v>2.537045352492142E-2</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="3"/>
+        <v>4.1185064634845489E-2</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <f t="shared" si="5"/>
+        <v>0.76767676767676762</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" si="6"/>
+        <v>0.15488215488215487</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="7"/>
+        <v>7.7441077441077436E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>45015.494416099536</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>214000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>139100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>229</v>
+      </c>
+      <c r="I14" s="6">
+        <v>35</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="7">
+        <v>403</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="1"/>
+        <v>531.01736972704714</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="2"/>
+        <v>4.3134435657800141E-3</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="5"/>
+        <v>0.74592833876221498</v>
+      </c>
+      <c r="W14" s="14">
+        <f t="shared" si="6"/>
+        <v>0.11400651465798045</v>
+      </c>
+      <c r="X14" s="14">
+        <f t="shared" si="7"/>
+        <v>0.14006514657980457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>45015.703346759256</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <v>165122</v>
+      </c>
+      <c r="D15" s="3">
+        <v>528</v>
+      </c>
+      <c r="E15" s="6">
+        <v>107329.3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>205</v>
+      </c>
+      <c r="G15" s="3">
+        <v>39918</v>
+      </c>
+      <c r="H15" s="3">
+        <v>136.9</v>
+      </c>
+      <c r="I15" s="3">
+        <v>51.1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="3">
+        <v>125.36</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="7">
+        <v>380</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="1"/>
+        <v>434.53157894736842</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="2"/>
+        <v>4.9194395193111291E-3</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="4"/>
+        <v>1.9100096618537528E-3</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.37192080820428342</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="5"/>
+        <v>0.60709534368070961</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" si="6"/>
+        <v>0.22660753880266077</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" si="7"/>
+        <v>0.16629711751662971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>45016.342198321756</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41014</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1730</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41014</v>
+      </c>
+      <c r="F16" s="3">
+        <v>37514</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H16" s="3">
+        <v>178</v>
+      </c>
+      <c r="I16" s="3">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3">
+        <v>40</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="3">
+        <v>97</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="7">
+        <v>84</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="1"/>
+        <v>488.26190476190476</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="2"/>
+        <v>4.2180718778953526E-2</v>
+      </c>
+      <c r="S16" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" si="4"/>
+        <v>0.91466328570731947</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" si="4"/>
+        <v>8.5336714292680554E-2</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="5"/>
+        <v>0.68199233716475094</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="6"/>
+        <v>0.16475095785440613</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="7"/>
+        <v>0.1532567049808429</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>45016.42414427083</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3">
+        <v>38829</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2371.92</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38829</v>
+      </c>
+      <c r="F17" s="3">
+        <v>38404</v>
+      </c>
+      <c r="G17" s="3">
+        <v>425</v>
+      </c>
+      <c r="H17" s="3">
+        <v>92</v>
+      </c>
+      <c r="I17" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="6">
+        <v>201</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="1"/>
+        <v>193.17910447761193</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="2"/>
+        <v>6.1086301475701155E-2</v>
+      </c>
+      <c r="S17" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="4"/>
+        <v>0.98905457261325302</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0945427386747019E-2</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="W17" s="14">
+        <f t="shared" si="6"/>
+        <v>0.34541062801932365</v>
+      </c>
+      <c r="X17" s="14">
+        <f t="shared" si="7"/>
+        <v>0.21014492753623187</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>45016.51286357639</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>82148</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>65800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>206</v>
+      </c>
+      <c r="I18" s="3">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3">
+        <v>43</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="3">
+        <v>81</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="7">
+        <v>104</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="1"/>
+        <v>789.88461538461536</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="2"/>
+        <v>4.3290043290043288E-2</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="3"/>
+        <v>0.84359935725763258</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.9494949494949495</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="4"/>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="5"/>
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="W18" s="14">
+        <f t="shared" si="6"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="7"/>
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>45016.690710104165</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>56070</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1570</v>
+      </c>
+      <c r="E19" s="3">
+        <v>56070</v>
+      </c>
+      <c r="F19" s="3">
+        <v>56070</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>222</v>
+      </c>
+      <c r="I19" s="3">
+        <v>49.7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="4">
+        <v>186</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="1"/>
+        <v>301.45161290322579</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="2"/>
+        <v>2.800071339397182E-2</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" si="4"/>
+        <v>3.5669698591046908E-5</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="5"/>
+        <v>0.71867918420200716</v>
+      </c>
+      <c r="W19" s="14">
+        <f t="shared" si="6"/>
+        <v>0.16089349303981873</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="7"/>
+        <v>0.12042732275817418</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="25"/>
+      <c r="S22" s="24"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:29" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>45005.564700925926</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="18">
+        <v>8828</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>344</v>
+      </c>
+      <c r="I26" s="18">
+        <v>54</v>
+      </c>
+      <c r="J26" s="18">
+        <v>28</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="18">
+        <v>255</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="18">
+        <v>23</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>383.82608695652175</v>
+      </c>
+      <c r="R26" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S26" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" s="14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" s="14" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>45015.675072337966</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="18">
+        <v>224226</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>221.32</v>
+      </c>
+      <c r="I27" s="18">
+        <v>59.4</v>
+      </c>
+      <c r="J27" s="18">
+        <v>42</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="19">
+        <v>65</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>3449.6307692307691</v>
+      </c>
+      <c r="R27" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S27" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC27" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>45015.679077731482</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="18">
+        <v>9823</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>295</v>
+      </c>
+      <c r="I28" s="18">
+        <v>51</v>
+      </c>
+      <c r="J28" s="18">
+        <v>30</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="18">
+        <v>173</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="19">
+        <v>11</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>893</v>
+      </c>
+      <c r="R28" s="21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC2" r:id="rId1" xr:uid="{BC0B38D4-A40B-4725-9364-965FB70CAA59}"/>
+    <hyperlink ref="AC7" r:id="rId2" xr:uid="{FB7D2DA2-C72B-475A-B054-FDF03FD7F386}"/>
+    <hyperlink ref="AC11" r:id="rId3" xr:uid="{5B6C312C-3E97-4876-BC2A-6E50B979D129}"/>
+    <hyperlink ref="N2" r:id="rId4" tooltip="Gironde (département)" display="https://fr.wikipedia.org/wiki/Gironde_(d%C3%A9partement)" xr:uid="{B8CCD42F-384C-4E65-9BA0-32B1A8F0DABB}"/>
+    <hyperlink ref="N3" r:id="rId5" tooltip="Isère (département)" display="https://fr.wikipedia.org/wiki/Is%C3%A8re_(d%C3%A9partement)" xr:uid="{8009F7AB-E8C6-4BDA-84AB-6C9ADCA94E89}"/>
+    <hyperlink ref="N4" r:id="rId6" tooltip="Ille-et-Vilaine" display="https://fr.wikipedia.org/wiki/Ille-et-Vilaine" xr:uid="{AD34FD5C-4A8E-4FAA-8B77-68E875E26136}"/>
+    <hyperlink ref="N5" r:id="rId7" tooltip="Meurthe-et-Moselle" display="https://fr.wikipedia.org/wiki/Meurthe-et-Moselle" xr:uid="{E899A98D-C8C1-405E-85E7-9BE522AB314E}"/>
+    <hyperlink ref="N6" r:id="rId8" tooltip="Loire-Atlantique" display="https://fr.wikipedia.org/wiki/Loire-Atlantique" xr:uid="{B5FC9BA8-EED0-4CEA-B0E0-5C45E67EDB01}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5D876F-75B6-4700-99F5-4F33E2B31B60}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="E8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E842F-DCBD-4AF8-983C-106F4FFA8D6C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -2456,18 +3952,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="172.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="172.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2483,87 +3979,87 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2571,7 +4067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2579,23 +4075,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2603,12 +4099,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\S2\Maraton-du-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FFFFD-F76A-4633-802A-C84E36088CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D4EA3-0F3C-4AEB-BAA2-DA219283D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DD" sheetId="1" r:id="rId1"/>
@@ -387,9 +387,6 @@
     <t>Typolo</t>
   </si>
   <si>
-    <t>Biodéchet T/an/H</t>
-  </si>
-  <si>
     <t>Densité</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Peu dense </t>
+  </si>
+  <si>
+    <t>Biodéchet kg/an/H</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +508,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,7 +526,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -537,6 +542,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -759,34 +766,34 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -830,7 +837,7 @@
         <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>115</v>
@@ -842,8 +849,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>45001.677176620375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -891,7 +898,7 @@
       <c r="P2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <f>C2/O2</f>
         <v>667.56140350877195</v>
       </c>
@@ -899,8 +906,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -948,7 +955,7 @@
       <c r="P3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <f t="shared" ref="Q3:Q22" si="0">C3/O3</f>
         <v>367.7081712062257</v>
       </c>
@@ -956,8 +963,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1005,13 +1012,13 @@
       <c r="P4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <f t="shared" si="0"/>
         <v>1122.0131578947369</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1059,7 +1066,7 @@
       <c r="P5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>155.72519083969465</v>
       </c>
@@ -1067,8 +1074,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1116,7 +1123,7 @@
       <c r="P6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <f t="shared" si="0"/>
         <v>523.60706062931695</v>
       </c>
@@ -1124,8 +1131,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1173,7 +1180,7 @@
       <c r="P7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f t="shared" si="0"/>
         <v>1023.2558139534884</v>
       </c>
@@ -1181,62 +1188,62 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:18" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>45005.564700925926</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>8828</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>344</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>54</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>28</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>255</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <v>23</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <f t="shared" si="0"/>
         <v>383.82608695652175</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>45005.621300856481</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1284,13 +1291,13 @@
       <c r="P9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <f t="shared" si="0"/>
         <v>1786.3684210526317</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>45005.631334247686</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1327,18 +1334,18 @@
         <v>52</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="O10" s="3">
         <v>330</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="12">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="11">
         <f t="shared" si="0"/>
         <v>470.36363636363637</v>
       </c>
@@ -1346,8 +1353,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>45007.493851562496</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1395,7 +1402,7 @@
       <c r="P11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f t="shared" si="0"/>
         <v>534.20588235294122</v>
       </c>
@@ -1403,8 +1410,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>45008.446508553243</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1452,7 +1459,7 @@
       <c r="P12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <f t="shared" si="0"/>
         <v>527.50565184626976</v>
       </c>
@@ -1460,8 +1467,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>45014.472854074076</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1509,7 +1516,7 @@
       <c r="P13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <f t="shared" si="0"/>
         <v>540.54054054054052</v>
       </c>
@@ -1517,8 +1524,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>45015.485319687505</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1566,13 +1573,13 @@
       <c r="P14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <f t="shared" si="0"/>
         <v>32.87112462006079</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>45015.494416099536</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1620,127 +1627,127 @@
       <c r="P15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <f t="shared" si="0"/>
         <v>531.01736972704714</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:18" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>45015.675072337966</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>224226</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>221.32</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>59.4</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>42</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <v>65</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <f t="shared" si="0"/>
         <v>3449.6307692307691</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+    <row r="17" spans="1:18" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>45015.679077731482</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>9823</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>295</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>51</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>30</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>173</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>11</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <f t="shared" si="0"/>
         <v>893</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>45015.703346759256</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1788,13 +1795,13 @@
       <c r="P18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <f t="shared" si="0"/>
         <v>434.53157894736842</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>45016.342198321756</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1842,7 +1849,7 @@
       <c r="P19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <f t="shared" si="0"/>
         <v>488.26190476190476</v>
       </c>
@@ -1850,8 +1857,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>45016.42414427083</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1899,7 +1906,7 @@
       <c r="P20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <f t="shared" si="0"/>
         <v>189.39800995024876</v>
       </c>
@@ -1907,8 +1914,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>45016.51286357639</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1956,7 +1963,7 @@
       <c r="P21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <f t="shared" si="0"/>
         <v>789.88461538461536</v>
       </c>
@@ -1964,8 +1971,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>45016.690710104165</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2013,7 +2020,7 @@
       <c r="P22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <f t="shared" si="0"/>
         <v>301.45161290322579</v>
       </c>
@@ -2040,37 +2047,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EA96B-7D24-4AB2-BD67-5C208D2B42E4}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>115</v>
@@ -2122,33 +2128,33 @@
       <c r="Q1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>116</v>
+      <c r="R1" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="V1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>123</v>
-      </c>
-      <c r="X1" t="s">
-        <v>124</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>45001.677176620375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2196,35 +2202,35 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <f>C2/O2</f>
         <v>667.56140350877195</v>
       </c>
-      <c r="R2" s="11">
-        <f>D2/E2</f>
-        <v>2.6786712895649257E-2</v>
-      </c>
-      <c r="S2" s="14">
+      <c r="R2" s="26">
+        <f>D2/E2*1000</f>
+        <v>26.786712895649256</v>
+      </c>
+      <c r="S2" s="13">
         <f>E2/$C2</f>
         <v>0.15664940912634798</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <f>F2/$E2</f>
         <v>1</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <f>G2/$E2</f>
         <v>0</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <f>H2/SUM($H2:$J2)</f>
         <v>0.17699115044247787</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <f t="shared" ref="W2:X2" si="0">I2/SUM($H2:$J2)</f>
         <v>0.49557522123893805</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <f t="shared" si="0"/>
         <v>0.32743362831858408</v>
       </c>
@@ -2232,8 +2238,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>45001.729072118054</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2281,35 +2287,35 @@
       <c r="P3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <f t="shared" ref="Q3:Q19" si="1">C3/O3</f>
         <v>367.7081712062257</v>
       </c>
-      <c r="R3" s="11">
-        <f t="shared" ref="R3:R19" si="2">D3/E3</f>
-        <v>1.8909852805790415E-2</v>
-      </c>
-      <c r="S3" s="14">
+      <c r="R3" s="26">
+        <f t="shared" ref="R3:R19" si="2">D3/E3*1000</f>
+        <v>18.909852805790415</v>
+      </c>
+      <c r="S3" s="13">
         <f t="shared" ref="S3:S19" si="3">E3/$C3</f>
         <v>1</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <f t="shared" ref="T3:U19" si="4">F3/$E3</f>
         <v>0.81718711971301894</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="13">
         <f t="shared" si="4"/>
         <v>0.18281288028698109</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="13">
         <f t="shared" ref="V3:V19" si="5">H3/SUM($H3:$J3)</f>
         <v>0.62999531689041521</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="13">
         <f t="shared" ref="W3:W19" si="6">I3/SUM($H3:$J3)</f>
         <v>0.22752107399313143</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="13">
         <f t="shared" ref="X3:X19" si="7">J3/SUM($H3:$J3)</f>
         <v>0.1424836091164533</v>
       </c>
@@ -2317,8 +2323,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>45002.416117141205</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2366,41 +2372,41 @@
       <c r="P4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <f t="shared" si="1"/>
         <v>1122.0131578947369</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="26">
         <f t="shared" si="2"/>
-        <v>2.985498668245043E-2</v>
-      </c>
-      <c r="S4" s="14">
+        <v>29.854986682450431</v>
+      </c>
+      <c r="S4" s="13">
         <f t="shared" si="3"/>
         <v>0.99064182097498621</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="13">
         <f t="shared" si="4"/>
         <v>0.99763243563184378</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="13">
         <f t="shared" si="4"/>
         <v>1.1814146197099733E-2</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="13">
         <f t="shared" si="5"/>
         <v>0.23255813953488372</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="13">
         <f t="shared" si="6"/>
         <v>0.34883720930232559</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="13">
         <f t="shared" si="7"/>
         <v>0.41860465116279072</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>45002.449634259261</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2448,35 +2454,35 @@
       <c r="P5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <f t="shared" si="1"/>
         <v>155.72519083969465</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="26">
         <f t="shared" si="2"/>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="S5" s="14">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="S5" s="13">
         <f t="shared" si="3"/>
         <v>0.73529411764705888</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="13">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="13">
         <f t="shared" si="5"/>
         <v>0.6630824372759857</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="13">
         <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="13">
         <f t="shared" si="7"/>
         <v>0.1111111111111111</v>
       </c>
@@ -2484,8 +2490,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>45002.627384050924</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2533,35 +2539,35 @@
       <c r="P6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <f t="shared" si="1"/>
         <v>523.60706062931695</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="26">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="S6" s="14">
+        <v>8</v>
+      </c>
+      <c r="S6" s="13">
         <f t="shared" si="3"/>
         <v>3.6642922053176208E-2</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="13">
         <f t="shared" si="5"/>
         <v>0.73161764705882348</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="13">
         <f t="shared" si="6"/>
         <v>0.16544117647058823</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="13">
         <f t="shared" si="7"/>
         <v>0.10294117647058823</v>
       </c>
@@ -2569,8 +2575,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>45002.650517083333</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2618,35 +2624,35 @@
       <c r="P7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f t="shared" si="1"/>
         <v>1023.2558139534884</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="26">
         <f t="shared" si="2"/>
-        <v>2.3575757575757576E-2</v>
-      </c>
-      <c r="S7" s="14">
+        <v>23.575757575757578</v>
+      </c>
+      <c r="S7" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="13">
         <f t="shared" si="5"/>
         <v>0.57317073170731703</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="13">
         <f t="shared" si="6"/>
         <v>0.23577235772357724</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="13">
         <f t="shared" si="7"/>
         <v>0.1910569105691057</v>
       </c>
@@ -2654,8 +2660,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>45005.621300856481</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2703,41 +2709,41 @@
       <c r="P8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <f t="shared" si="1"/>
         <v>1786.3684210526317</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="26">
         <f t="shared" si="2"/>
-        <v>9.6520432515247043E-2</v>
-      </c>
-      <c r="S8" s="14">
+        <v>96.520432515247037</v>
+      </c>
+      <c r="S8" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <f t="shared" si="5"/>
         <v>0.55825242718446599</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="13">
         <f t="shared" si="6"/>
         <v>0.16990291262135923</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="13">
         <f t="shared" si="7"/>
         <v>0.27184466019417475</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>45005.631334247686</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2774,46 +2780,46 @@
         <v>52</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="O9" s="3">
         <v>330</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q9" s="12">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="11">
         <f t="shared" si="1"/>
         <v>470.36363636363637</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="26">
         <f t="shared" si="2"/>
-        <v>1.5738242799854175E-2</v>
-      </c>
-      <c r="S9" s="14">
+        <v>15.738242799854175</v>
+      </c>
+      <c r="S9" s="13">
         <f t="shared" si="3"/>
         <v>0.17671691792294808</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <f t="shared" si="4"/>
         <v>0.23718556325191395</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="13">
         <f t="shared" si="4"/>
         <v>0.76281443674808602</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <f t="shared" si="5"/>
         <v>0.65714285714285714</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="13">
         <f t="shared" si="6"/>
         <v>0.21071428571428572</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="13">
         <f t="shared" si="7"/>
         <v>0.13214285714285715</v>
       </c>
@@ -2821,8 +2827,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>45007.493851562496</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2870,35 +2876,35 @@
       <c r="P10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <f t="shared" si="1"/>
         <v>534.20588235294122</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="26">
         <f t="shared" si="2"/>
-        <v>1.6517095193525299E-2</v>
-      </c>
-      <c r="S10" s="14">
+        <v>16.5170951935253</v>
+      </c>
+      <c r="S10" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="13">
         <f t="shared" si="5"/>
         <v>0.65780730897009965</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="13">
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <f t="shared" si="7"/>
         <v>0.19933554817275748</v>
       </c>
@@ -2906,8 +2912,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>45008.446508553243</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2955,35 +2961,35 @@
       <c r="P11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f t="shared" si="1"/>
         <v>527.50565184626976</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="26">
         <f t="shared" si="2"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="S11" s="14">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="S11" s="13">
         <f t="shared" si="3"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="13">
         <f t="shared" si="5"/>
         <v>0.76581196581196587</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="13">
         <f t="shared" si="6"/>
         <v>0.15247863247863247</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <f t="shared" si="7"/>
         <v>8.1709401709401705E-2</v>
       </c>
@@ -2991,8 +2997,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>45014.472854074076</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3040,35 +3046,35 @@
       <c r="P12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <f t="shared" si="1"/>
         <v>540.54054054054052</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="26">
         <f t="shared" si="2"/>
-        <v>2.0637681159420291E-3</v>
-      </c>
-      <c r="S12" s="14">
+        <v>2.0637681159420289</v>
+      </c>
+      <c r="S12" s="13">
         <f t="shared" si="3"/>
         <v>0.24642857142857144</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="13">
         <f t="shared" si="5"/>
         <v>0.76622106292794268</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="13">
         <f t="shared" si="6"/>
         <v>0.14183240952070428</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="13">
         <f t="shared" si="7"/>
         <v>9.1946527551353116E-2</v>
       </c>
@@ -3076,8 +3082,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>45015.485319687505</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3125,41 +3131,41 @@
       <c r="P13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <f t="shared" si="1"/>
         <v>32.87112462006079</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="26">
         <f t="shared" si="2"/>
-        <v>2.537045352492142E-2</v>
-      </c>
-      <c r="S13" s="14">
+        <v>25.37045352492142</v>
+      </c>
+      <c r="S13" s="13">
         <f t="shared" si="3"/>
         <v>4.1185064634845489E-2</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="13">
         <f t="shared" si="5"/>
         <v>0.76767676767676762</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="13">
         <f t="shared" si="6"/>
         <v>0.15488215488215487</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="13">
         <f t="shared" si="7"/>
         <v>7.7441077441077436E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>45015.494416099536</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3207,41 +3213,41 @@
       <c r="P14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <f t="shared" si="1"/>
         <v>531.01736972704714</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="26">
         <f t="shared" si="2"/>
-        <v>4.3134435657800141E-3</v>
-      </c>
-      <c r="S14" s="14">
+        <v>4.3134435657800143</v>
+      </c>
+      <c r="S14" s="13">
         <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="13">
         <f t="shared" si="5"/>
         <v>0.74592833876221498</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="13">
         <f t="shared" si="6"/>
         <v>0.11400651465798045</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="13">
         <f t="shared" si="7"/>
         <v>0.14006514657980457</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>45015.703346759256</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3289,41 +3295,41 @@
       <c r="P15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <f t="shared" si="1"/>
         <v>434.53157894736842</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="26">
         <f t="shared" si="2"/>
-        <v>4.9194395193111291E-3</v>
-      </c>
-      <c r="S15" s="14">
+        <v>4.9194395193111289</v>
+      </c>
+      <c r="S15" s="13">
         <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="13">
         <f t="shared" si="4"/>
         <v>1.9100096618537528E-3</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="13">
         <f t="shared" si="4"/>
         <v>0.37192080820428342</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="13">
         <f t="shared" si="5"/>
         <v>0.60709534368070961</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="13">
         <f t="shared" si="6"/>
         <v>0.22660753880266077</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="13">
         <f t="shared" si="7"/>
         <v>0.16629711751662971</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>45016.342198321756</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3371,35 +3377,35 @@
       <c r="P16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <f t="shared" si="1"/>
         <v>488.26190476190476</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="26">
         <f t="shared" si="2"/>
-        <v>4.2180718778953526E-2</v>
-      </c>
-      <c r="S16" s="14">
+        <v>42.180718778953526</v>
+      </c>
+      <c r="S16" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="13">
         <f t="shared" si="4"/>
         <v>0.91466328570731947</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="13">
         <f t="shared" si="4"/>
         <v>8.5336714292680554E-2</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="13">
         <f t="shared" si="5"/>
         <v>0.68199233716475094</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="13">
         <f t="shared" si="6"/>
         <v>0.16475095785440613</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="13">
         <f t="shared" si="7"/>
         <v>0.1532567049808429</v>
       </c>
@@ -3407,8 +3413,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>45016.42414427083</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3456,35 +3462,35 @@
       <c r="P17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <f t="shared" si="1"/>
         <v>193.17910447761193</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="26">
         <f t="shared" si="2"/>
-        <v>6.1086301475701155E-2</v>
-      </c>
-      <c r="S17" s="14">
+        <v>61.086301475701156</v>
+      </c>
+      <c r="S17" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="13">
         <f t="shared" si="4"/>
         <v>0.98905457261325302</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="13">
         <f t="shared" si="4"/>
         <v>1.0945427386747019E-2</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="13">
         <f t="shared" si="5"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="13">
         <f t="shared" si="6"/>
         <v>0.34541062801932365</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="13">
         <f t="shared" si="7"/>
         <v>0.21014492753623187</v>
       </c>
@@ -3492,8 +3498,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>45016.51286357639</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3541,35 +3547,35 @@
       <c r="P18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <f t="shared" si="1"/>
         <v>789.88461538461536</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="26">
         <f t="shared" si="2"/>
-        <v>4.3290043290043288E-2</v>
-      </c>
-      <c r="S18" s="14">
+        <v>43.290043290043286</v>
+      </c>
+      <c r="S18" s="13">
         <f t="shared" si="3"/>
         <v>0.84359935725763258</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="13">
         <f t="shared" si="4"/>
         <v>0.9494949494949495</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="13">
         <f t="shared" si="4"/>
         <v>5.0505050505050504E-2</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="13">
         <f t="shared" si="5"/>
         <v>0.71527777777777779</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="13">
         <f t="shared" si="6"/>
         <v>0.13541666666666666</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="13">
         <f t="shared" si="7"/>
         <v>0.14930555555555555</v>
       </c>
@@ -3577,8 +3583,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>45016.690710104165</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3626,35 +3632,35 @@
       <c r="P19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <f t="shared" si="1"/>
         <v>301.45161290322579</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="26">
         <f t="shared" si="2"/>
-        <v>2.800071339397182E-2</v>
-      </c>
-      <c r="S19" s="14">
+        <v>28.000713393971822</v>
+      </c>
+      <c r="S19" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="13">
         <f t="shared" si="4"/>
         <v>3.5669698591046908E-5</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="13">
         <f t="shared" si="5"/>
         <v>0.71867918420200716</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="13">
         <f t="shared" si="6"/>
         <v>0.16089349303981873</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="13">
         <f t="shared" si="7"/>
         <v>0.12042732275817418</v>
       </c>
@@ -3662,252 +3668,252 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="25"/>
-      <c r="S22" s="24"/>
-    </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:29" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="24"/>
+      <c r="S22" s="23"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:29" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>45005.564700925926</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>8828</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>0</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>0</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>344</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <v>54</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="17">
         <v>28</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="17">
         <v>255</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="17">
         <v>23</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="19">
         <v>383.82608695652175</v>
       </c>
-      <c r="R26" s="21" t="e">
+      <c r="R26" s="20" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S26" s="22" t="e">
+      <c r="S26" s="21" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="T26" s="14" t="e">
+      <c r="T26" s="13" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U26" s="14" t="e">
+      <c r="U26" s="13" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    <row r="27" spans="1:29" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <v>45015.675072337966</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>224226</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <v>0</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <v>221.32</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>59.4</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="17">
         <v>42</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="18">
         <v>65</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="19">
         <v>3449.6307692307691</v>
       </c>
-      <c r="R27" s="21" t="e">
+      <c r="R27" s="20" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S27" s="22" t="e">
+      <c r="S27" s="21" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="T27" s="14" t="e">
+      <c r="T27" s="13" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U27" s="14" t="e">
+      <c r="U27" s="13" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AC27" s="17" t="s">
+      <c r="AC27" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+    <row r="28" spans="1:29" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <v>45015.679077731482</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>9823</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>0</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <v>295</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>51</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="17">
         <v>30</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="17">
         <v>173</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="18">
         <v>11</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="19">
         <v>893</v>
       </c>
-      <c r="R28" s="21" t="e">
+      <c r="R28" s="20" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="S28" s="22" t="e">
+      <c r="S28" s="21" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="T28" s="14" t="e">
+      <c r="T28" s="13" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U28" s="14" t="e">
+      <c r="U28" s="13" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AC28" s="23" t="s">
+      <c r="AC28" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="25"/>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3932,11 +3938,11 @@
       <selection activeCell="G8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3952,17 +3958,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="172.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="172.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="1"/>
@@ -3979,7 +3985,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>105</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>106</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>107</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>109</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>110</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>111</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
@@ -4043,7 +4049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>113</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>114</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -4075,15 +4081,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>115</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>

--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D4EA3-0F3C-4AEB-BAA2-DA219283D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272C80C-7C5B-4390-B0FA-ACB721A8A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,12 +484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,8 +536,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2048,7 +2042,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3916,6 +3910,18 @@
       <c r="E37" s="24"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="R1:R19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AC2" r:id="rId1" xr:uid="{BC0B38D4-A40B-4725-9364-965FB70CAA59}"/>
     <hyperlink ref="AC7" r:id="rId2" xr:uid="{FB7D2DA2-C72B-475A-B054-FDF03FD7F386}"/>

--- a/Jeux_de_DD_propre.xlsx
+++ b/Jeux_de_DD_propre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\MIASHS\Maraton-du-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272C80C-7C5B-4390-B0FA-ACB721A8A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F15CC1-E188-4E15-9804-35FDE1379EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,8 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2041,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EA96B-7D24-4AB2-BD67-5C208D2B42E4}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2121,7 @@
       <c r="Q1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -2179,7 +2178,7 @@
         <v>37</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3">
         <v>102.79</v>
@@ -2200,7 +2199,7 @@
         <f>C2/O2</f>
         <v>667.56140350877195</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f>D2/E2*1000</f>
         <v>26.786712895649256</v>
       </c>
@@ -2285,7 +2284,7 @@
         <f t="shared" ref="Q3:Q19" si="1">C3/O3</f>
         <v>367.7081712062257</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" ref="R3:R19" si="2">D3/E3*1000</f>
         <v>18.909852805790415</v>
       </c>
@@ -2370,7 +2369,7 @@
         <f t="shared" si="1"/>
         <v>1122.0131578947369</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f t="shared" si="2"/>
         <v>29.854986682450431</v>
       </c>
@@ -2452,7 +2451,7 @@
         <f t="shared" si="1"/>
         <v>155.72519083969465</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <f t="shared" si="2"/>
         <v>116.66666666666667</v>
       </c>
@@ -2537,7 +2536,7 @@
         <f t="shared" si="1"/>
         <v>523.60706062931695</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -2622,7 +2621,7 @@
         <f t="shared" si="1"/>
         <v>1023.2558139534884</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <f t="shared" si="2"/>
         <v>23.575757575757578</v>
       </c>
@@ -2707,7 +2706,7 @@
         <f t="shared" si="1"/>
         <v>1786.3684210526317</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <f t="shared" si="2"/>
         <v>96.520432515247037</v>
       </c>
@@ -2789,7 +2788,7 @@
         <f t="shared" si="1"/>
         <v>470.36363636363637</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="25">
         <f t="shared" si="2"/>
         <v>15.738242799854175</v>
       </c>
@@ -2874,7 +2873,7 @@
         <f t="shared" si="1"/>
         <v>534.20588235294122</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="25">
         <f t="shared" si="2"/>
         <v>16.5170951935253</v>
       </c>
@@ -2959,7 +2958,7 @@
         <f t="shared" si="1"/>
         <v>527.50565184626976</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="25">
         <f t="shared" si="2"/>
         <v>4.1000000000000005</v>
       </c>
@@ -3044,7 +3043,7 @@
         <f t="shared" si="1"/>
         <v>540.54054054054052</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="25">
         <f t="shared" si="2"/>
         <v>2.0637681159420289</v>
       </c>
@@ -3129,7 +3128,7 @@
         <f t="shared" si="1"/>
         <v>32.87112462006079</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="25">
         <f t="shared" si="2"/>
         <v>25.37045352492142</v>
       </c>
@@ -3211,7 +3210,7 @@
         <f t="shared" si="1"/>
         <v>531.01736972704714</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="25">
         <f t="shared" si="2"/>
         <v>4.3134435657800143</v>
       </c>
@@ -3293,7 +3292,7 @@
         <f t="shared" si="1"/>
         <v>434.53157894736842</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="25">
         <f t="shared" si="2"/>
         <v>4.9194395193111289</v>
       </c>
@@ -3375,7 +3374,7 @@
         <f t="shared" si="1"/>
         <v>488.26190476190476</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="25">
         <f t="shared" si="2"/>
         <v>42.180718778953526</v>
       </c>
@@ -3460,7 +3459,7 @@
         <f t="shared" si="1"/>
         <v>193.17910447761193</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="25">
         <f t="shared" si="2"/>
         <v>61.086301475701156</v>
       </c>
@@ -3545,7 +3544,7 @@
         <f t="shared" si="1"/>
         <v>789.88461538461536</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="25">
         <f t="shared" si="2"/>
         <v>43.290043290043286</v>
       </c>
@@ -3630,7 +3629,7 @@
         <f t="shared" si="1"/>
         <v>301.45161290322579</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="25">
         <f t="shared" si="2"/>
         <v>28.000713393971822</v>
       </c>
